--- a/query_response_analysis.xlsx
+++ b/query_response_analysis.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>S.No.</t>
   </si>
@@ -208,6 +208,33 @@
   <si>
     <t>**Marco Here!** I'm happy to help you find a great restaurant for your meal. What kind of dish are you in the mood
 for? (e.g., Italian, Chinese, Mexican)</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>**Delicious!** Just Italian. And what kind of Italian dish are you thinking of? (e.g., pasta, pizza, risotto)</t>
+  </si>
+  <si>
+    <t>**Great Choice!** Pizza! And what kind of pizza are you in the mood for? (e.g., Margherita, Pepperoni, Veggie) Or
+maybe something more unique?</t>
+  </si>
+  <si>
+    <t>Veggie</t>
+  </si>
+  <si>
+    <t>**Veggie Pizza!** And how many people are you looking to feed? (e.g., just me, my partner, a big group?)</t>
+  </si>
+  <si>
+    <t>for 4 people</t>
+  </si>
+  <si>
+    <t>**For 4 People!** Okay, so a veggie pizza for 4 people. And what is your budget like for this meal? (e.g., 10-20,
+20-50, 50+?)</t>
+  </si>
+  <si>
+    <t>**Within Your Budget!** Okay, so a veggie pizza for 4 people within a budget of 200. I'll find the perfect place
+for you!</t>
   </si>
 </sst>
 </file>
@@ -847,8 +874,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1383,10 +1410,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1569,19 +1596,19 @@
       </c>
     </row>
     <row r="12" ht="409.5" spans="1:7">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>3</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="F12" t="s">
@@ -1591,18 +1618,88 @@
         <v>36</v>
       </c>
     </row>
+    <row r="13" ht="45" spans="1:7">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" ht="60" spans="1:7">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" ht="60" spans="1:7">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" ht="60" spans="1:7">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17">
+        <v>200</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="15">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A17"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B12:B17"/>
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="C7:C11"/>
+    <mergeCell ref="C12:C17"/>
     <mergeCell ref="D2:D6"/>
     <mergeCell ref="D7:D11"/>
+    <mergeCell ref="D12:D17"/>
     <mergeCell ref="E2:E6"/>
     <mergeCell ref="E7:E11"/>
+    <mergeCell ref="E12:E17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
